--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2160.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2160.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.499882952800673</v>
+        <v>0.8935616612434387</v>
       </c>
       <c r="B1">
-        <v>2.924695922240975</v>
+        <v>1.649622797966003</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.047933189836399</v>
+        <v>1.552900433540344</v>
       </c>
       <c r="E1">
-        <v>0.6221644846884321</v>
+        <v>1.015778541564941</v>
       </c>
     </row>
   </sheetData>
